--- a/Documents/ResultsPostQuestionaire.xlsx
+++ b/Documents/ResultsPostQuestionaire.xlsx
@@ -4,27 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="PreferenceOculus" sheetId="2" r:id="rId1"/>
-    <sheet name="Number1RationaleOculus" sheetId="3" r:id="rId2"/>
-    <sheet name="Number1UsageOculus" sheetId="4" r:id="rId3"/>
-    <sheet name="Number5RationaleOculus" sheetId="5" r:id="rId4"/>
-    <sheet name="Number5UsageOculus" sheetId="6" r:id="rId5"/>
-    <sheet name="PreferenceNonOculus" sheetId="8" r:id="rId6"/>
-    <sheet name="Number1UsageNonOculus" sheetId="9" r:id="rId7"/>
-    <sheet name="Number5UsageNonOculus" sheetId="10" r:id="rId8"/>
-    <sheet name="Number1RationaleNonOculus" sheetId="11" r:id="rId9"/>
-    <sheet name="Number5RationaleNonOculus" sheetId="12" r:id="rId10"/>
-    <sheet name="PostExperimentQuestionaire" sheetId="1" r:id="rId11"/>
+    <sheet name="LeastPreferredOculus" sheetId="2" r:id="rId1"/>
+    <sheet name="MostPreferredOculus" sheetId="15" r:id="rId2"/>
+    <sheet name="Number1RationaleOculus" sheetId="3" r:id="rId3"/>
+    <sheet name="Number1UsageOculus" sheetId="4" r:id="rId4"/>
+    <sheet name="Number5RationaleOculus" sheetId="5" r:id="rId5"/>
+    <sheet name="Number5UsageOculus" sheetId="6" r:id="rId6"/>
+    <sheet name="LeastPrefferedNonOculus" sheetId="8" r:id="rId7"/>
+    <sheet name="MostPreferredNonOculus" sheetId="13" r:id="rId8"/>
+    <sheet name="Number1UsageNonOculus" sheetId="9" r:id="rId9"/>
+    <sheet name="Number5UsageNonOculus" sheetId="10" r:id="rId10"/>
+    <sheet name="Number1RationaleNonOculus" sheetId="11" r:id="rId11"/>
+    <sheet name="Number5RationaleNonOculus" sheetId="12" r:id="rId12"/>
+    <sheet name="MediumChoices" sheetId="16" r:id="rId13"/>
+    <sheet name="InterfaceQuality" sheetId="17" r:id="rId14"/>
+    <sheet name="PostExperimentQuestionaire" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Oculus rift interface ranking</t>
   </si>
@@ -112,6 +116,54 @@
   <si>
     <t>Non Oculus rift interface ranking</t>
   </si>
+  <si>
+    <t>Medium Choices</t>
+  </si>
+  <si>
+    <t>I felt the interfaces worked better when using</t>
+  </si>
+  <si>
+    <t>I felt the experiment was more intuitive when using</t>
+  </si>
+  <si>
+    <t>I found the experiment more difficult when using</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>No Oculus rift</t>
+  </si>
+  <si>
+    <t>Oculus rift</t>
+  </si>
+  <si>
+    <t>Interface Quality</t>
+  </si>
+  <si>
+    <t>The interfaces were well made.</t>
+  </si>
+  <si>
+    <t>I understood my objective at all times.</t>
+  </si>
+  <si>
+    <t>The interfaces were easy to understand.</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
 </sst>
 </file>
 
@@ -154,11 +206,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -213,11 +271,1384 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Interface</a:t>
+              <a:t>Least preferred interface</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> preference Oculus rift</a:t>
+              <a:t> Oculus rift</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Diegetic Interface</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Meta Interface</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Non Diegetic Interface</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spatial Interface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>No Interface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-239700096"/>
+        <c:axId val="-239705536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-239700096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Interface</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-239705536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-239705536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-239700096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>How</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> often least preffered interface was used non Oculus</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$71:$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Never</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rarely</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sometimes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Often</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Very Often</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$B$71:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-69864688"/>
+        <c:axId val="-68865184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-69864688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-68865184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-68865184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-69864688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Rationale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> for most preffered interface non Oculus</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$47:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>It helped me perform at my best</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>It helped me identify the projectiles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>It was easy to understand and use</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>It effected my choices</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I could rely on it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>It wasn't intrusive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>It was much better than the other interfaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$B$47:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-68863008"/>
+        <c:axId val="-68874976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-68863008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-68874976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-68874976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-68863008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Rationale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> for least preffered interface non Oculus</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$62:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>It helped me perform at my best</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>It helped me identify the projectiles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>It was easy to understand and use</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>It effected my choices</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I could rely on it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>It wasn't intrusive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>It was much better than the other interfaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$B$62:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-68871168"/>
+        <c:axId val="-68864640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-68871168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-68864640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-68864640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-68871168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Participants preference</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of Oculus vs no Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -265,11 +1696,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$3</c:f>
+              <c:f>PostExperimentQuestionaire!$B$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rank5</c:v>
+                  <c:v>Oculus rift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -286,47 +1717,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
+              <c:f>PostExperimentQuestionaire!$A$78:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
+                  <c:v>I felt the interfaces worked better when using</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
+                  <c:v>I felt the experiment was more intuitive when using</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
+                  <c:v>I found the experiment more difficult when using</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$3:$F$3</c:f>
+              <c:f>PostExperimentQuestionaire!$B$78:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,11 +1756,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$4</c:f>
+              <c:f>PostExperimentQuestionaire!$C$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rank4</c:v>
+                  <c:v>No Oculus rift</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -358,47 +1777,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
+              <c:f>PostExperimentQuestionaire!$A$78:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
+                  <c:v>I felt the interfaces worked better when using</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
+                  <c:v>I felt the experiment was more intuitive when using</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
+                  <c:v>I found the experiment more difficult when using</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$4:$F$4</c:f>
+              <c:f>PostExperimentQuestionaire!$C$78:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,11 +1816,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$5</c:f>
+              <c:f>PostExperimentQuestionaire!$D$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rank3</c:v>
+                  <c:v>Not sure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -430,191 +1837,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
+              <c:f>PostExperimentQuestionaire!$A$78:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
+                  <c:v>I felt the interfaces worked better when using</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
+                  <c:v>I felt the experiment was more intuitive when using</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
+                  <c:v>I found the experiment more difficult when using</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$5:$F$5</c:f>
+              <c:f>PostExperimentQuestionaire!$D$78:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,16 +1881,77 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1872369568"/>
-        <c:axId val="-1872361408"/>
+        <c:axId val="-68878240"/>
+        <c:axId val="-68874432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1872369568"/>
+        <c:axId val="-68878240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Statements</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> posed to participant</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -677,7 +1989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1872361408"/>
+        <c:crossAx val="-68874432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +1997,703 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1872361408"/>
+        <c:axId val="-68874432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of votes cast</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-68878240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Particpants</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> opinions of interface quality</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$83:$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>The interfaces were well made.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The interfaces were easy to understand.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I understood my objective at all times.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$B$83:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$C$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$83:$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>The interfaces were well made.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The interfaces were easy to understand.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I understood my objective at all times.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$C$83:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$D$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neither agree nor disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$83:$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>The interfaces were well made.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The interfaces were easy to understand.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I understood my objective at all times.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$D$83:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$E$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$83:$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>The interfaces were well made.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The interfaces were easy to understand.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I understood my objective at all times.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$E$83:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$F$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$83:$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>The interfaces were well made.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The interfaces were easy to understand.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I understood my objective at all times.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$F$83:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2132933024"/>
+        <c:axId val="-2132932480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2132933024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Question</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> posed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2132932480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2132932480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,7 +2805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1872369568"/>
+        <c:crossAx val="-2132933024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -873,7 +2881,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -908,17 +2916,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Rationale</a:t>
+              <a:t>Most preferred interface</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> for least preffered interface non Oculus</a:t>
+              <a:t> Oculus rift</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -952,12 +2959,23 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -970,65 +2988,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$62:$A$69</c:f>
+              <c:f>PostExperimentQuestionaire!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>It helped me perform at my best</c:v>
+                  <c:v>Diegetic Interface</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>It helped me identify the projectiles</c:v>
+                  <c:v>Meta Interface</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>It was easy to understand and use</c:v>
+                  <c:v>Non Diegetic Interface</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>It effected my choices</c:v>
+                  <c:v>Spatial Interface</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I could rely on it</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>It wasn't intrusive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>It was much better than the other interfaces</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
+                  <c:v>No Interface</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$62:$B$69</c:f>
+              <c:f>PostExperimentQuestionaire!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,17 +3042,78 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1708854064"/>
-        <c:axId val="-1708846992"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-239710976"/>
+        <c:axId val="-359020320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1708854064"/>
+        <c:axId val="-239710976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Interface</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1090,7 +3151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1708846992"/>
+        <c:crossAx val="-359020320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,12 +3159,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1708846992"/>
+        <c:axId val="-359020320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1118,6 +3179,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1149,327 +3270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1708854064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Rationale</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> for most preffered Oculus interface</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$9:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>It helped me perform at my best</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>It helped me identify the projectiles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>It was easy to understand and use</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>It effected my choices</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>I could rely on it</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>It wasn't intrusive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>It was much better than the other interfaces</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$9:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1872374464"/>
-        <c:axId val="-1994392960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1872374464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1994392960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1994392960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1872374464"/>
+        <c:crossAx val="-239710976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,17 +3349,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>How</a:t>
+              <a:t>Rationale</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> often the most prefered interface was used Oculus</a:t>
+              <a:t> for most preffered Oculus interface</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1592,7 +3392,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1610,47 +3410,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$18:$A$22</c:f>
+              <c:f>PostExperimentQuestionaire!$A$9:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Never</c:v>
+                  <c:v>It helped me perform at my best</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Rarely</c:v>
+                  <c:v>It helped me identify the projectiles</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sometimes</c:v>
+                  <c:v>It was easy to understand and use</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Often</c:v>
+                  <c:v>It effected my choices</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Very Often</c:v>
+                  <c:v>I could rely on it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>It wasn't intrusive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>It was much better than the other interfaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$18:$B$22</c:f>
+              <c:f>PostExperimentQuestionaire!$B$9:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,18 +3482,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1709915728"/>
-        <c:axId val="-1709916816"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="-69863056"/>
+        <c:axId val="-69864144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709915728"/>
+        <c:axId val="-69863056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1713,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709916816"/>
+        <c:crossAx val="-69864144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1721,12 +3538,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709916816"/>
+        <c:axId val="-69864144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1772,7 +3589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709915728"/>
+        <c:crossAx val="-69863056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1851,17 +3668,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Rationale</a:t>
+              <a:t>How</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> for least preffered interface Oculus</a:t>
+              <a:t> often the most prefered interface was used Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,7 +3711,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1913,121 +3729,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$24:$A$31</c:f>
+              <c:f>PostExperimentQuestionaire!$A$18:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>It helped me perform at my best</c:v>
+                  <c:v>Never</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>It helped me identify the projectiles</c:v>
+                  <c:v>Rarely</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>It was easy to understand and use</c:v>
+                  <c:v>Sometimes</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>It effected my choices</c:v>
+                  <c:v>Often</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I could rely on it</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>It wasn't intrusive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>It was much better than the other interfaces</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
+                  <c:v>Very Often</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$24:$B$31</c:f>
+              <c:f>PostExperimentQuestionaire!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$24:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>It helped me perform at my best</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>It helped me identify the projectiles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>It was easy to understand and use</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>It effected my choices</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>I could rely on it</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>It wasn't intrusive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>It was much better than the other interfaces</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$C$24:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2040,17 +3783,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1709915184"/>
-        <c:axId val="-1709914640"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-69867408"/>
+        <c:axId val="-69868496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709915184"/>
+        <c:axId val="-69867408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2088,7 +3832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709914640"/>
+        <c:crossAx val="-69868496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2096,12 +3840,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709914640"/>
+        <c:axId val="-69868496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2147,7 +3891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709915184"/>
+        <c:crossAx val="-69867408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2159,38 +3903,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2258,17 +3970,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>How</a:t>
+              <a:t>Rationale</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> often least preffered interface was used Oculus</a:t>
+              <a:t> for least preffered interface Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2302,7 +4013,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2320,48 +4031,121 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$33:$A$37</c:f>
+              <c:f>PostExperimentQuestionaire!$A$24:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Never</c:v>
+                  <c:v>It helped me perform at my best</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Rarely</c:v>
+                  <c:v>It helped me identify the projectiles</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sometimes</c:v>
+                  <c:v>It was easy to understand and use</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Often</c:v>
+                  <c:v>It effected my choices</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Very Often</c:v>
+                  <c:v>I could rely on it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>It wasn't intrusive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>It was much better than the other interfaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$33:$B$37</c:f>
+              <c:f>PostExperimentQuestionaire!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$24:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>It helped me perform at my best</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>It helped me identify the projectiles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>It was easy to understand and use</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>It effected my choices</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I could rely on it</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>It wasn't intrusive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>It was much better than the other interfaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PostExperimentQuestionaire!$C$24:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2374,18 +4158,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1709907024"/>
-        <c:axId val="-1709908112"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="-69863600"/>
+        <c:axId val="-69854896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709907024"/>
+        <c:axId val="-69863600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2423,7 +4206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709908112"/>
+        <c:crossAx val="-69854896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,12 +4214,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709908112"/>
+        <c:axId val="-69854896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2482,7 +4265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709907024"/>
+        <c:crossAx val="-69863600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2494,6 +4277,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2561,17 +4375,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Interface preference</a:t>
+              <a:t>How</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> non Oculus</a:t>
+              <a:t> often least preffered interface was used Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2611,17 +4424,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2634,332 +4436,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
+              <c:f>PostExperimentQuestionaire!$A$33:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
+                  <c:v>Never</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
+                  <c:v>Rarely</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
+                  <c:v>Sometimes</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
+                  <c:v>Often</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>No Interface</c:v>
+                  <c:v>Very Often</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$41:$F$41</c:f>
+              <c:f>PostExperimentQuestionaire!$B$33:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$42:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$43:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$44:$F$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rank1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta Interface</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non Diegetic Interface</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial Interface</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$45:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2978,11 +4492,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1709909744"/>
-        <c:axId val="-1709917904"/>
+        <c:axId val="-69860336"/>
+        <c:axId val="-69857616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709909744"/>
+        <c:axId val="-69860336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +4539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709917904"/>
+        <c:crossAx val="-69857616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +4547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709917904"/>
+        <c:axId val="-69857616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,67 +4567,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of votes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3145,7 +4598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709909744"/>
+        <c:crossAx val="-69860336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3157,38 +4610,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3256,17 +4677,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>How</a:t>
+              <a:t>Least preferred Interface</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> often most preffered interface was used non Oculus</a:t>
+              <a:t> non Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3306,6 +4726,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3318,44 +4749,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$56:$A$60</c:f>
+              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Never</c:v>
+                  <c:v>Diegetic Interface</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Rarely</c:v>
+                  <c:v>Meta Interface</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sometimes</c:v>
+                  <c:v>Non Diegetic Interface</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Often</c:v>
+                  <c:v>Spatial Interface</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Very Often</c:v>
+                  <c:v>No Interface</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$56:$B$60</c:f>
+              <c:f>PostExperimentQuestionaire!$B$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10</c:v>
@@ -3374,16 +4805,76 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1709922256"/>
-        <c:axId val="-1709911920"/>
+        <c:axId val="-69858704"/>
+        <c:axId val="-69859248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709922256"/>
+        <c:axId val="-69858704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Interface</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3421,7 +4912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709911920"/>
+        <c:crossAx val="-69859248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +4920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709911920"/>
+        <c:axId val="-69859248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,6 +4940,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3480,7 +5031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709922256"/>
+        <c:crossAx val="-69858704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3559,17 +5110,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>How</a:t>
+              <a:t> Most preferred interface</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> often least preffered interface was used non Oculus</a:t>
+              <a:t> non Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3609,6 +5159,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PostExperimentQuestionaire!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3621,44 +5182,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$71:$A$75</c:f>
+              <c:f>PostExperimentQuestionaire!$B$40:$F$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Never</c:v>
+                  <c:v>Diegetic Interface</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Rarely</c:v>
+                  <c:v>Meta Interface</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sometimes</c:v>
+                  <c:v>Non Diegetic Interface</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Often</c:v>
+                  <c:v>Spatial Interface</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Very Often</c:v>
+                  <c:v>No Interface</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$71:$B$75</c:f>
+              <c:f>PostExperimentQuestionaire!$B$45:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3677,16 +5238,76 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1709921168"/>
-        <c:axId val="-1709912464"/>
+        <c:axId val="-69855440"/>
+        <c:axId val="-69870128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709921168"/>
+        <c:axId val="-69855440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Interface</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3724,7 +5345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709912464"/>
+        <c:crossAx val="-69870128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3732,7 +5353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709912464"/>
+        <c:axId val="-69870128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,6 +5373,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3783,7 +5464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709921168"/>
+        <c:crossAx val="-69855440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3862,17 +5543,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Rationale</a:t>
+              <a:t>How</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> for most preffered interface non Oculus</a:t>
+              <a:t> often most preffered interface was used non Oculus</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3906,7 +5586,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3924,65 +5604,47 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PostExperimentQuestionaire!$A$47:$A$54</c:f>
+              <c:f>PostExperimentQuestionaire!$A$56:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>It helped me perform at my best</c:v>
+                  <c:v>Never</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>It helped me identify the projectiles</c:v>
+                  <c:v>Rarely</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>It was easy to understand and use</c:v>
+                  <c:v>Sometimes</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>It effected my choices</c:v>
+                  <c:v>Often</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I could rely on it</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>It wasn't intrusive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>It was much better than the other interfaces</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
+                  <c:v>Very Often</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PostExperimentQuestionaire!$B$47:$B$54</c:f>
+              <c:f>PostExperimentQuestionaire!$B$56:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3996,17 +5658,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1709910288"/>
-        <c:axId val="-1709907568"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-69867952"/>
+        <c:axId val="-69866320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1709910288"/>
+        <c:axId val="-69867952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4044,7 +5707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709907568"/>
+        <c:crossAx val="-69866320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4052,12 +5715,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1709907568"/>
+        <c:axId val="-69866320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4103,7 +5766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1709910288"/>
+        <c:crossAx val="-69867952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4188,6 +5851,166 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5051,7 +6874,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5255,23 +7078,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5376,8 +7198,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5509,20 +7331,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5555,7 +7376,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6060,8 +7881,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6265,22 +8086,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6385,8 +8207,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6518,19 +8340,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6563,8 +8386,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6768,23 +8591,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6889,8 +8711,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7022,20 +8844,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7068,7 +8889,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7571,7 +9392,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8074,8 +9895,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8279,22 +10100,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8399,8 +10221,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8532,19 +10354,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8577,7 +10400,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9080,7 +10903,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9585,11 +11408,2023 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9601,6 +13436,50 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9699,7 +13578,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9727,6 +13606,114 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307975" cy="6076709"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -10252,10 +14239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10274,12 +14261,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -10399,12 +14386,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -10471,12 +14458,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -10519,12 +14506,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -10591,12 +14578,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -10639,12 +14626,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -10764,12 +14751,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -10836,12 +14823,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -10884,12 +14871,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -10956,12 +14943,12 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -11003,18 +14990,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A70:D70"/>
+  <mergeCells count="12">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A81:D81"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A70:D70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
